--- a/AcctSpreadsheetTemplate.xlsx
+++ b/AcctSpreadsheetTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\Github\AccountingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1140,14 +1140,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1159,265 +1152,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1527,109 +1261,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="53"/>
-      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6512,7 +6148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -9085,7 +8721,7 @@
     <mergeCell ref="A94:G94"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:P93">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$H5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13944,7 +13580,7 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:O205">
-    <cfRule type="expression" dxfId="65" priority="24">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>$G5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15434,7 +15070,7 @@
     <mergeCell ref="A61:F61"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:O60">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$G5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22223,7 +21859,7 @@
     <mergeCell ref="A291:F291"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:O290">
-    <cfRule type="expression" dxfId="61" priority="74">
+    <cfRule type="expression" dxfId="7" priority="74">
       <formula>$G5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22601,7 +22237,7 @@
     <mergeCell ref="A11:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:O10">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$G5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22937,7 +22573,7 @@
     <mergeCell ref="A11:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:O10">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$G5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23258,10 +22894,10 @@
     <mergeCell ref="A11:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:N10">
-    <cfRule type="expression" dxfId="55" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A5&lt;&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
